--- a/output/valid/customers_valid.xlsx
+++ b/output/valid/customers_valid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,1881 +897,2471 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>da671afa-1c1c-43b2-870e-b1321e27f076</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eraldo Gozzano-Valmarana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>email_non_valida</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3000-01-01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>+39 3917542572</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Stretto Elvira, 273
+34012, Basovizza (TS)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>San Genesio Atesino</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Pistoia</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Tajikistan</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>-87.9578655</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-54.587759</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>26ad5da1-372d-440a-ac3b-da00c7e1ab5e</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Carolina Rubbia</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>moresigermana@example.com</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1990-05-21</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Piazza Rembrandt, 93 Piano 0
 98164, Messina (ME)</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Tils</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>60020</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Alessandria</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>64.423419</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L10" t="n">
         <v>101.702772</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>a4a2a54f-3833-4d8d-9129-90cad4f58d76</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rosina Visintini</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>email_non_valida</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3000-01-01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>+39 3917542572</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vicolo Magnani, 43
+98141, Giampilieri Marina (ME)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Caprioli</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Asti</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Giappone</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>-79.2209</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-9.437987</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>ee699fa3-2345-4406-bc2f-6ef2c2ad5161</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Gloria Pasolini</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>zfallaci@example.com</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>2005-11-10</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Stretto Nedda, 489 Appartamento 72
 23880, California (LC)</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Ciavolotto</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>9027</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Ancona</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Saint Lucia</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K12" t="n">
         <v>-55.4257825</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L12" t="n">
         <v>126.134704</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>8ca362dd-26f2-4cb6-b420-3b44623bb74e</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Donatello Condoleo</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>ferdinandotravaglia@example.org</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>2003-06-27</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Incrocio Sandra, 32
 92020, Villafranca Sicula (AG)</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Sampeyre</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
         <v>70054</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Enna</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Bahamas</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K13" t="n">
         <v>-62.4747815</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L13" t="n">
         <v>135.00067</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>32f33356-8f00-4cb1-b04f-8725eed35428</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Annunziata Monduzzi</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>hfanucci@example.com</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>1949-09-03</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Rotonda Amadeo, 456
 36045, Almisano (VI)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Valas</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>34075</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Savona</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Cuba</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K14" t="n">
         <v>-21.2953745</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>114.961425</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>da3e605e-423f-4b22-b407-a2ed4d3bddea</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Isabella Battaglia</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>gioachinoantelami@example.com</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>1953-06-05</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Contrada Vittoria, 186 Piano 2
 47832, Sant'Andrea In Casale (RN)</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Sonnino</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>36036</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Aosta</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Oman</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K15" t="n">
         <v>-66.43168900000001</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L15" t="n">
         <v>74.06128200000001</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>99ef32ca-eae9-4601-8629-32ae31abf0bd</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lando Regge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>email_non_valida</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3000-01-01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>+39 3917542572</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Piazza Ruberto, 914
+88825, Savelli (KR)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>St.Pete</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>42.318689</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-156.40589</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>90e0ea79-a787-44b2-991f-7aba01360e51</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Dott. Paolo Norbiato</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>renzifabrizio@example.net</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>1945-12-26</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Canale Bernardo, 650 Appartamento 84
 21047, Saronno (VA)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Sferracavallo</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>20058</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Belluno</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Barbados</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K17" t="n">
         <v>-5.8369465</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>-80.07161000000001</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>915529c9-8cbe-44ad-84c2-c36d5cef891d</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Gaspare Morrocco</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>kzaccardo@example.org</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1979-01-21</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Piazza Letta, 422
 15011, Acqui Terme (AL)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Rosa'</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>31033</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Bolzano</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Cambogia</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K18" t="n">
         <v>59.5587095</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>176.047315</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>448f1676-9074-4c7b-8cad-accf6038408d</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Susanna Sokolov</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>turchivittoria@example.net</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>1972-11-15</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Canale Parisi, 66
 89133, Cannavo' (RC)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Bosa Marina</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>96017</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>L'Aquila</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K19" t="n">
         <v>16.087387</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>-48.823362</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>e43ad50a-20ba-43d2-9bff-ce4306c41e61</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Germana Campise</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>dcanetta@example.com</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>1974-10-11</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Canale Bonino, 734 Appartamento 3
 23871, Lomagna (LC)</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Villa Col Dei Canali</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>26846</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Bergamo</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K20" t="n">
         <v>-29.0505695</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L20" t="n">
         <v>124.444362</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>402f8b63-5072-44c9-b518-e12f8315636a</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Michele Mazzi-Farinelli</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>email_non_valida</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3000-01-01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>+39 3917542572</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Strada Olga, 8
+20883, Mezzago (MB)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Le Regine</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Olanda</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>-66.0040975</v>
+      </c>
+      <c r="L21" t="n">
+        <v>128.370492</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>a017bf9a-848e-4061-b2c4-cbf89f901147</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dott. Giulia Pezzali</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>email_non_valida</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3000-01-01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>+39 3917542572</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Viale Mortati, 33
+13047, San Germano Vercellese (VC)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Inarzo</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Pavia</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Costa d'Avorio</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>-44.4771955</v>
+      </c>
+      <c r="L22" t="n">
+        <v>125.834881</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>62c444bc-3edf-4616-b053-f1288f8727bd</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Lidia Gussoni</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>landomoschino@example.org</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>1956-03-05</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Contrada Silvia, 679 Appartamento 4
 45024, Fiesso Umbertiano (RO)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Grand Villa</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H23" t="n">
         <v>14014</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Massa-Carrara</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Reunion</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K23" t="n">
         <v>-47.78306</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L23" t="n">
         <v>111.413035</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>d1036fbe-b1a8-473c-b624-5c7b18aab7ec</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Dott. Fiamma Ferraris</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>ugorandazzo@example.net</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>1955-05-30</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Incrocio Borromini, 4 Piano 2
 02014, San Liberato (RI)</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Montecenere</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H24" t="n">
         <v>73018</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Avellino</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="K24" t="n">
         <v>0.819171</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L24" t="n">
         <v>-156.662572</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>18b2f1ca-3e5c-4100-9008-3cdbd29ba2d7</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Gastone Bottigliero-Pininfarina</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>salvatoreinteriano@example.org</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>1944-01-06</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Stretto Nico, 43 Piano 8
 80028, Grumo Nevano (NA)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Terzo La Pieve</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H25" t="n">
         <v>31018</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>La Spezia</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Haiti</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="K25" t="n">
         <v>-71.19060450000001</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L25" t="n">
         <v>-77.47457799999999</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>d3e806ec-9750-496a-858d-52543babd020</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Corrado Nordio</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>qpertile@example.com</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>1979-03-03</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Stretto Paloma, 5
 42042, Fabbrico (RE)</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Caltignaga</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>20058</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Trieste</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Repubblica Ceca</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K26" t="n">
         <v>-64.6617935</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L26" t="n">
         <v>-21.347569</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>532fb55a-3525-4ddc-b368-ec15144c5837</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Antonio Chiaramonte</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>email_non_valida</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3000-01-01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>+39 3917542572</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Canale Lazzaro, 27 Appartamento 4
+13861, Ailoche (BI)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>San Vito Di Altivole</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>L'Aquila</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Saint Pierre and Miquelon</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>38.8959345</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-27.080544</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>894885a4-9373-4b28-b9e7-ce15236e2ce6</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Vincenza Sobrero</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>email_non_valida</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3000-01-01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>+39 3917542572</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Canale Redi, 75 Appartamento 2
+17038, Villanova D'Albenga (SV)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Ravi</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Avellino</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Sud Africa</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>57.3509865</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-137.289091</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>2b406446-670f-4f1a-ac15-ebc6cd37c133</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Dott. Gelsomina Finzi</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>gcarnera@example.com</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>1949-09-17</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Via Boccaccio, 581
 23802, Carenno (LC)</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Alfano</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H29" t="n">
         <v>41058</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Vibo Valentia</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>San Bartolomeo</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="K29" t="n">
         <v>-65.81571700000001</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L29" t="n">
         <v>122.847538</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>8cb83c55-d87e-4192-a763-770dd53c1990</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Raffaella Malenchini</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>evangelistamalaparte@example.org</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>1941-08-08</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Incrocio Lilla, 3
 80122, Chiaia (NA)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Poggio Nativo</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H30" t="n">
         <v>24061</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Varese</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Città del Vaticano</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K30" t="n">
         <v>-79.5666915</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L30" t="n">
         <v>-162.883894</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>cee6bb59-9435-491f-9dc8-52889b7d8517</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Sig. Massimo Papetti</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>toni48@example.net</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>1977-04-16</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Vicolo Caracciolo, 8 Appartamento 4
 07015, Padria (SS)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Certosa Di Pavia</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H31" t="n">
         <v>95017</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Cremona</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Saint Martin</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="K31" t="n">
         <v>63.0471215</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L31" t="n">
         <v>-116.767501</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>e945388c-66fc-48ae-ba8d-2062e9d06db7</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Luigi Tozzo</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>olga89@example.org</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>1950-08-12</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Contrada Paola, 28
 72024, San Cosimo Alla Macchia (BR)</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Carinola</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H32" t="n">
         <v>63842</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Caltanissetta</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="K32" t="n">
         <v>23.819154</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L32" t="n">
         <v>162.852376</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>4cbaad4d-53b8-4261-938e-a7f3ec0a967a</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Giada Liguori</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>xaloisio@example.org</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>1998-06-18</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>Incrocio Bonolis, 11 Appartamento 36
 56010, Uliveto Terme (PI)</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Gomago</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>33026</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Novara</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Repubblica Centrale Africana</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="K33" t="n">
         <v>-23.5019375</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>49.403617</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1c467026-16de-4d1e-81b7-89412e4aafd7</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Emma Vespa</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>email_non_valida</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3000-01-01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>+39 3917542572</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Borgo Gioffre, 84
+43030, Marzolara (PR)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Ceppo Morelli</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Matera</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>77.4680165</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-45.453323</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>31764027-3bc6-4a68-882d-9bfe8c269add</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Mariano Capecchi</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>scamuccini@example.com</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>1951-12-03</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>Canale Vittorio, 23
 05039, Stroncone (TR)</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Prata Di Principato Ultra</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H35" t="n">
         <v>33038</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Lodi</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Indonesia</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="K35" t="n">
         <v>-38.158349</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L35" t="n">
         <v>-4.326414</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>484997e7-94db-4182-822e-d652759cfd21</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Fausto Cremonesi-Bazzi</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>babatoantonietta@example.org</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>1962-07-26</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Stretto Smirnoff, 62
 21028, Travedona Monate (VA)</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Zogno</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H36" t="n">
         <v>20883</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Monza e della Brianza</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="K36" t="n">
         <v>-58.965204</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L36" t="n">
         <v>-101.852686</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>23d7a08a-d080-4a08-97df-f75f23505842</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Romana Franscini</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>rosa54@example.com</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>1963-04-08</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>Piazza Leopardi, 3 Appartamento 11
 00060, Terrazze (RM)</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Sant'Agata Sui Due Golfi</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H37" t="n">
         <v>80023</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Verona</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Wallis and Futuna</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="K37" t="n">
         <v>-15.8206945</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L37" t="n">
         <v>165.394583</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>4f4a53fe-3635-4d86-bd32-7f068f7ad686</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Luchino Battelli</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>pliguori@example.com</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>1994-10-24</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>Strada Lucchesi, 40 Piano 5
 40129, Bologna (BO)</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Campione Del Garda</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H38" t="n">
         <v>13833</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Teramo</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Macao</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="K38" t="n">
         <v>-41.9713335</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L38" t="n">
         <v>29.974287</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>04e38553-8777-497e-9731-d46f4029abea</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Mauro Marenzio</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>mariatomasetti@example.com</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>1969-03-27</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>Rotonda Guglielmo, 35 Appartamento 84
 33090, Vito D'Asio (PN)</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>St.Johann In Ahrnta</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H39" t="n">
         <v>20881</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Ravenna</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="K39" t="n">
         <v>-51.750729</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L39" t="n">
         <v>-147.165412</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>67088c78-cebe-41e0-b9b7-9d05ae5aaef7</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Vito Errani</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>osismondi@example.org</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>1978-12-19</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>Contrada Maccanelli, 8
 29027, San Polo (PC)</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Riana Di Monchio</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H40" t="n">
         <v>85055</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Salerno</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Cina</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="K40" t="n">
         <v>66.939618</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L40" t="n">
         <v>-96.039219</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>a83b4fe0-80ce-4e5a-aa1c-081831e09129</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Pierina Grifeo-Pizziol</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>danteroncalli@example.com</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>1998-12-23</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>Incrocio Fuseli, 40 Appartamento 6
 09170, Nuraxinieddu (OR)</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Cortenuova</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H41" t="n">
         <v>41013</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Vicenza</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Micronesia</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="K41" t="n">
         <v>43.4465045</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L41" t="n">
         <v>-152.36172</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>4e28d7e2-ae7e-4f3e-845a-065ca7d57375</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Dott. Valeria Gianvecchio</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>ansaldocaruso@example.org</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>2006-04-08</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>Borgo Gioele, 7
 16144, Genova (GE)</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Parre</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H42" t="n">
         <v>73015</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Olbia-Tempio</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Rwanda</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="K42" t="n">
         <v>9.985618499999999</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L42" t="n">
         <v>-109.890659</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>c1721aa6-8f67-4381-8d0d-a36ba8962b84</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Gemma Legnante</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>azegliofantozzi@example.com</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>1936-09-03</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>Viale Melina, 95
 44124, Ferrara (FE)</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Girla</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H43" t="n">
         <v>1039</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="K43" t="n">
         <v>62.124366</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L43" t="n">
         <v>135.943977</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>19dfce9a-c67f-425c-b242-1227c7f2e363</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Adelmo Vecellio</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>sonninocostanzo@example.com</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>1963-01-28</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>Piazza Milena, 79 Appartamento 3
 20088, Rosate (MI)</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Piccolino</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H44" t="n">
         <v>51015</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Barletta-Andria-Trani</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Lituania</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="K44" t="n">
         <v>72.756122</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L44" t="n">
         <v>-114.940272</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>0df0e25c-27eb-4263-8ca6-bc2d5aa073c9</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Rosaria Flaiano-Petruzzi</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>silvestrorighi@example.net</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>1995-01-25</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>Contrada Rosina, 44 Appartamento 5
 02015, Cittaducale (RI)</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Bazzana</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H45" t="n">
         <v>10093</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Niue</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="K45" t="n">
         <v>-43.4236485</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L45" t="n">
         <v>176.12513</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>9320fae8-1b1a-44d2-8016-c8b84783a462</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Enrico Guidotti</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>oreste21@example.com</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>1954-10-10</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Contrada Trussardi, 27 Appartamento 36
 60038, San Paolo Di Jesi (AN)</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Camigliano</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H46" t="n">
         <v>16124</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Barletta-Andria-Trani</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Bolivia</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="K46" t="n">
         <v>-72.765961</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L46" t="n">
         <v>-165.526219</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>a2f2736c-6317-4b00-8be9-cd8cceab2e9c</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Gianmarco Verdone-Guicciardini</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>email_non_valida</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3000-01-01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>+39 3917542572</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Piazza Ignazio, 96 Piano 5
+35026, Conselve (PD)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Drapia</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Pordenone</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Heard Island and McDonald Islands</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>-33.660924</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-40.092329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7d0e3134-f3cb-418a-ae58-abe7cbf04a9c</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Elisa Mazzacurati</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>email_non_valida</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3000-01-01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>+39 3917542572</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Viale Cavalcanti, 4 Appartamento 8
+65126, Pescara (PE)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Sandra'</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>ABCDE</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Massa-Carrara</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>84.450293</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5.497922</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>450b35c6-414a-46e4-9d64-c29eb12dc95f</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Maurilio Brenna</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>ftomasetti@example.net</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>1972-11-11</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>Viale Lerner, 186
 21041, Albizzate (VA)</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Mirabello Sannitico</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H49" t="n">
         <v>7028</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Ascoli Piceno</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Afghanistan</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="K49" t="n">
         <v>53.843575</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L49" t="n">
         <v>-117.764148</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>0b59c704-1594-44c9-8d77-ed29af23f023</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Gloria Sinisi</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>mattia49@example.com</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>1987-01-25</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>Incrocio Tina, 81 Appartamento 88
 65023, San Tommaso (PE)</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Castelveccana</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H50" t="n">
         <v>75020</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Forlì-Cesena</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Serbia</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="K50" t="n">
         <v>-40.993103</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L50" t="n">
         <v>124.941359</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>805d4357-5b80-4f0f-abf5-45ae5a7cb0c5</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Sig. Gianfrancesco Galtarossa</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>telesioevangelista@example.com</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>1991-10-04</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>+393917542572</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>+393917542572</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>Incrocio Salvi, 94
 36015, Sant'Ulderico (VI)</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Airole</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H51" t="n">
         <v>10154</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Mantova</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Saint Martin</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="K51" t="n">
         <v>-32.355512</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L51" t="n">
         <v>-141.880884</v>
       </c>
     </row>

--- a/output/valid/customers_valid.xlsx
+++ b/output/valid/customers_valid.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>+393917542572</t>
+          <t>+39 3917542572</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
